--- a/resources/experiment 1/metrics/R2/upto time/Infarto de Miocardio (UPTO).xlsx
+++ b/resources/experiment 1/metrics/R2/upto time/Infarto de Miocardio (UPTO).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8745025752828831</v>
+        <v>0.84457726188958</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8744647873005091</v>
+        <v>0.8482158566782154</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8744647873005091</v>
+        <v>0.8025913851327323</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.887395834671643</v>
+        <v>0.8445631312607134</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8873958854766344</v>
+        <v>0.8445631312607134</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8873958854766344</v>
+        <v>0.7913798731503779</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8231807334597854</v>
+        <v>0.6533590851872334</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8223436369503295</v>
+        <v>0.6613432097973514</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8223436369503295</v>
+        <v>0.620851658905046</v>
       </c>
     </row>
   </sheetData>
